--- a/xlsx/1812年战争_intext.xlsx
+++ b/xlsx/1812年战争_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1022">
   <si>
     <t>1812年战争</t>
   </si>
@@ -29,7 +29,7 @@
     <t>华盛顿大火</t>
   </si>
   <si>
-    <t>政策_政策_美國_1812年战争</t>
+    <t>政策_政策_美国_1812年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%A4%A7%E5%8E%A6</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E5%85%8B%E6%89%98%E4%BA%BA</t>
   </si>
   <si>
-    <t>喬克托人</t>
+    <t>乔克托人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E7%BE%85%E5%9F%BA%E4%BA%BA</t>
   </si>
   <si>
-    <t>切羅基人</t>
+    <t>切罗基人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A2%A0%E5%8F%8A%E7%88%B1%E5%B0%94%E5%85%B0%E8%81%94%E5%90%88%E7%8E%8B%E5%9B%BD</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%A3%E4%BA%A1</t>
   </si>
   <si>
-    <t>陣亡</t>
+    <t>阵亡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E8%A9%B9%E9%87%91%E9%80%8A%EF%BC%8C%E7%AC%AC%E4%BA%8C%E4%BB%A3%E5%88%A9%E7%89%A9%E6%B5%A6%E4%BC%AF%E7%88%B5</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%99%AE%E8%98%AD%E6%B9%96%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>尚普蘭湖戰役</t>
+    <t>尚普兰湖战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Baltimore</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>美洲大陸</t>
+    <t>美洲大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%AD%E6%98%AD%E5%A4%A9%E5%91%BD</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/1783%E5%B9%B4%E5%B7%B4%E9%BB%8E%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>1783年巴黎條約</t>
+    <t>1783年巴黎条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9A%87%E5%AE%B6%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>英國皇家海軍</t>
+    <t>英国皇家海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%92%E5%8C%96</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E5%B4%99%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>拿破崙戰爭</t>
+    <t>拿破崙战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%A2%9D%E6%97%97%E6%AD%8C</t>
   </si>
   <si>
-    <t>星條旗歌</t>
+    <t>星条旗歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國海軍</t>
+    <t>美国海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E6%B9%96</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%99%AE%E8%98%AD%E6%B9%96</t>
   </si>
   <si>
-    <t>尚普蘭湖</t>
+    <t>尚普兰湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E5%B0%94</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B%E5%9C%8D%E5%9F%8E%E6%88%B0</t>
   </si>
   <si>
-    <t>底特律圍城戰</t>
+    <t>底特律围城战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Queenston_Heights</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E6%B9%96%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>伊利湖戰役</t>
+    <t>伊利湖战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E4%BC%A6%E5%A4%9A</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>京士頓</t>
+    <t>京士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5%E7%9C%81</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E5%B8%95%E7%93%A6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>奇帕瓦戰役</t>
+    <t>奇帕瓦战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fort_Mackinac</t>
@@ -497,13 +497,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%B3%93%E5%A3%AB%E5%9F%9F</t>
   </si>
   <si>
-    <t>紐賓士域</t>
+    <t>纽宾士域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%96%AF%E7%A7%91%E8%88%8D</t>
@@ -521,19 +521,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%8F%8D%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維珍尼亞州</t>
+    <t>维珍尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9</t>
   </si>
   <si>
-    <t>巴爾的摩</t>
+    <t>巴尔的摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%89%B9%E7%A6%8F%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>哈特福會議</t>
+    <t>哈特福会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%85%9A</t>
@@ -647,19 +647,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A5%E5%A4%AA%E8%8F%AF%E6%B2%B3</t>
   </si>
   <si>
-    <t>渥太華河</t>
+    <t>渥太华河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A5%E5%A4%AA%E8%8F%AF</t>
   </si>
   <si>
-    <t>渥太華</t>
+    <t>渥太华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%91%9F%C2%B7%E9%9F%8B%E7%88%BE%E6%96%AF%E5%88%A9%EF%BC%8C%E7%AC%AC%E4%B8%80%E4%BB%A3%E5%A8%81%E9%9D%88%E9%A0%93%E5%85%AC%E7%88%B5</t>
   </si>
   <si>
-    <t>阿瑟·韋爾斯利，第一代威靈頓公爵</t>
+    <t>阿瑟·韦尔斯利，第一代威灵顿公爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%91%E9%93%81%E5%8D%A2%E6%88%98%E5%BD%B9</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E6%88%B0%E7%88%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美洲戰爭列表</t>
+    <t>美洲战争列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%88%98%E4%BA%89%E5%88%97%E8%A1%A8</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>戰爭</t>
+    <t>战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E5%8F%B8%E8%B5%B7%E4%B9%89</t>
@@ -725,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>猶他戰爭</t>
+    <t>犹他战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%98%E4%BA%89</t>
@@ -767,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美墨戰爭</t>
+    <t>美墨战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E9%B8%A6%E7%89%87%E6%88%98%E4%BA%89</t>
@@ -779,13 +779,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A6%8F%E7%88%BE%E6%91%A9%E6%B2%99%E9%81%A0%E5%BE%81</t>
   </si>
   <si>
-    <t>美國福爾摩沙遠征</t>
+    <t>美国福尔摩沙远征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%9C%AA%E6%B4%8B%E6%93%BE</t>
   </si>
   <si>
-    <t>辛未洋擾</t>
+    <t>辛未洋扰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%98%E4%BA%89</t>
@@ -809,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%94%E9%A0%98%E6%B5%B7%E5%9C%B0</t>
   </si>
   <si>
-    <t>美國佔領海地</t>
+    <t>美国佔领海地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -845,13 +845,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94</t>
   </si>
   <si>
-    <t>入侵格林納達</t>
+    <t>入侵格林纳达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>黎巴嫩內戰</t>
+    <t>黎巴嫩内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%86%85%E6%88%98</t>
@@ -875,25 +875,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A5%E4%BE%B5%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>美國入侵巴拿馬</t>
+    <t>美国入侵巴拿马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>海灣戰爭</t>
+    <t>海湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%8A%A0%E8%BF%AA%E6%B2%99%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>摩加迪沙之戰</t>
+    <t>摩加迪沙之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯尼亞戰爭</t>
+    <t>波斯尼亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0%E4%B9%8B%E7%8B%90%E8%A1%8C%E5%8A%A8</t>
@@ -905,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>科索沃戰爭</t>
+    <t>科索沃战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BA%A6%E8%BD%B0%E7%82%B8%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB</t>
@@ -917,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD_(2001%E5%B9%B4)</t>
   </si>
   <si>
-    <t>阿富汗戰爭 (2001年)</t>
+    <t>阿富汗战争 (2001年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%98%E4%BA%89</t>
@@ -941,31 +941,28 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>敘利亞內戰</t>
+    <t>叙利亚内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E5%9C%A8%E6%95%98%E5%88%A9%E4%BA%9E%E9%87%9D%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E7%A9%BA%E8%A5%B2</t>
   </si>
   <si>
-    <t>2014年在敘利亞針對伊斯蘭國的空襲</t>
+    <t>2014年在叙利亚针对伊斯兰国的空袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E8%BB%8D%E4%BA%8B%E6%89%93%E6%93%8A</t>
   </si>
   <si>
-    <t>對伊斯蘭國的軍事打擊</t>
+    <t>对伊斯兰国的军事打击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%88%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國戰爭列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>美國軍事</t>
+    <t>美国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E5%8F%8D%E6%B3%95%E5%90%8C%E7%9B%9F</t>
@@ -1019,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%AC%AC%E4%B8%80%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西第一帝國</t>
+    <t>法兰西第一帝国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Polish_Legions_(Napoleonic_period)</t>
@@ -1031,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E7%8E%8B%E5%9C%8B_(%E6%8B%BF%E7%A0%B4%E5%B4%99%E6%99%82%E4%BB%A3)</t>
   </si>
   <si>
-    <t>義大利王國 (拿破崙時代)</t>
+    <t>义大利王国 (拿破崙时代)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD_(%E5%82%80%E5%84%A1%E5%9B%BD)</t>
@@ -1055,55 +1052,55 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E4%B8%8D%E5%8B%92%E6%96%AF%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>那不勒斯王國</t>
+    <t>那不勒斯王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E8%8C%B5%E9%82%A6%E8%81%AF</t>
   </si>
   <si>
-    <t>萊茵邦聯</t>
+    <t>莱茵邦联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%BC%90%E5%88%A9%E4%BA%9E%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>巴伐利亞王國</t>
+    <t>巴伐利亚王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%85%8B%E6%A3%AE%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>薩克森王國</t>
+    <t>萨克森王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E4%BC%90%E5%80%AB%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>威斯伐倫王國</t>
+    <t>威斯伐伦王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%A6%E9%A8%B0%E5%A0%A1%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>符騰堡王國</t>
+    <t>符腾堡王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5-%E6%8C%AA%E5%A8%81</t>
   </si>
   <si>
-    <t>丹麥-挪威</t>
+    <t>丹麦-挪威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%82%E5%9C%96%E6%9B%BC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>鄂圖曼帝國</t>
+    <t>鄂图曼帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%89%8E%E7%88%BE%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>卡扎爾王朝</t>
+    <t>卡扎尔王朝</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kingdom_of_Spain_under_Joseph_Bonaparte</t>
@@ -1121,43 +1118,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>奧地利帝國</t>
+    <t>奥地利帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>俄羅斯帝國</t>
+    <t>俄罗斯帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>普魯士王國</t>
+    <t>普鲁士王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>葡萄牙帝國</t>
+    <t>葡萄牙帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E8%A5%BF%E8%A5%BF%E9%87%8C%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>兩西西里王國</t>
+    <t>两西西里王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%9A%87%E5%9C%8B</t>
   </si>
   <si>
-    <t>教皇國</t>
+    <t>教皇国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E4%B8%81%E5%B0%BC%E4%BA%9E%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>薩丁尼亞王國</t>
+    <t>萨丁尼亚王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E5%8E%86%E5%8F%B2</t>
@@ -1181,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E9%A8%B7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>拿騷公國</t>
+    <t>拿骚公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%97%81%E7%8E%8B%E6%9C%9D</t>
@@ -1193,13 +1190,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>法國大革命戰爭</t>
+    <t>法国大革命战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>法國大革命</t>
+    <t>法国大革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%8F%8D%E6%B3%95%E5%90%8C%E7%9B%9F</t>
@@ -1277,7 +1274,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E7%88%BE%E5%A7%86%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>烏爾姆戰役</t>
+    <t>乌尔姆战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Verona_(1805)</t>
@@ -1289,7 +1286,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E6%B3%95%E5%8A%A0%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>特拉法加海戰</t>
+    <t>特拉法加海战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Caldiero_(1805)</t>
@@ -1361,7 +1358,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E6%8B%BF%E6%9C%83%E6%88%B0</t>
   </si>
   <si>
-    <t>耶拿會戰</t>
+    <t>耶拿会战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Capitulation_of_Erfurt</t>
@@ -1475,7 +1472,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%86%E6%BE%A4%E5%9C%8D%E5%9F%8E%E6%88%B0_(1807%E5%B9%B4)</t>
   </si>
   <si>
-    <t>但澤圍城戰 (1807年)</t>
+    <t>但泽围城战 (1807年)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Mileto</t>
@@ -1499,7 +1496,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E8%98%AD%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>弗里德蘭戰役</t>
+    <t>弗里德兰战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Invasion_of_Portugal_(1807)</t>
@@ -1721,7 +1718,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%B9%E6%96%AF%E5%A0%A1-%E5%9F%83%E5%85%8B%E8%AC%AC%E7%88%BE%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>雷根斯堡-埃克謬爾戰役</t>
+    <t>雷根斯堡-埃克谬尔战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Ratisbon</t>
@@ -1829,7 +1826,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E6%A0%BC%E5%A7%86%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>華格姆戰役</t>
+    <t>华格姆战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Combat_of_Korneuburg</t>
@@ -2015,7 +2012,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%B8%83%E7%B6%AD%E6%8B%89%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>奧布維拉戰役</t>
+    <t>奥布维拉战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Usagre</t>
@@ -2093,7 +2090,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%A1%94%E8%AB%BE%E5%A4%AB%E5%8D%A1%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>薩塔諾夫卡戰役</t>
+    <t>萨塔诺夫卡战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Ostrovno</t>
@@ -2123,7 +2120,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%91%A9%E6%A3%B1%E6%96%AF%E5%85%8B%E6%88%B0%E5%BD%B9_(1812%E5%B9%B4)</t>
   </si>
   <si>
-    <t>斯摩棱斯克戰役 (1812年)</t>
+    <t>斯摩棱斯克战役 (1812年)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/First_Battle_of_Polotsk</t>
@@ -2207,7 +2204,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A5%E5%88%97%E6%B4%A5%E7%B4%8D%E6%B2%B3%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>別列津納河戰役</t>
+    <t>别列津纳河战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Castalla</t>
@@ -2219,13 +2216,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%82%E5%B2%91%E6%9C%83%E6%88%B0_(1813%E5%B9%B4)</t>
   </si>
   <si>
-    <t>呂岑會戰 (1813年)</t>
+    <t>吕岑会战 (1813年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%85%E5%B2%91%E6%9C%83%E6%88%B0</t>
   </si>
   <si>
-    <t>包岑會戰</t>
+    <t>包岑会战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Siege_of_Tarragona_(1813)</t>
@@ -2279,7 +2276,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%8B%92%E6%96%AF%E7%99%BB%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>德勒斯登戰役</t>
+    <t>德勒斯登战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Kulm</t>
@@ -2429,7 +2426,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%96%AF%E6%88%B0%E5%BD%B9_(1814%E5%B9%B4)</t>
   </si>
   <si>
-    <t>漢斯戰役 (1814年)</t>
+    <t>汉斯战役 (1814年)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Craonne</t>
@@ -2717,7 +2714,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E4%BB%A3%E5%A8%81%E9%9D%88%E9%A0%93%E5%85%AC%E7%88%B5%E9%98%BF%E7%91%9F%C2%B7%E9%9F%8B%E7%88%BE%E6%96%AF%E5%88%A9</t>
   </si>
   <si>
-    <t>第一代威靈頓公爵阿瑟·韋爾斯利</t>
+    <t>第一代威灵顿公爵阿瑟·韦尔斯利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E4%BB%A3%E7%BA%B3%E5%B0%94%E9%80%8A%E5%AD%90%E7%88%B5%E9%9C%8D%E9%9B%B7%E8%82%96%C2%B7%E7%BA%B3%E5%B0%94%E9%80%8A</t>
@@ -2777,7 +2774,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E4%BC%8A%E8%90%AC%E8%AB%BE%E7%B6%AD%E5%A5%87%C2%B7%E5%B7%B4%E6%A0%BC%E6%8B%89%E5%AD%A3%E6%98%82</t>
   </si>
   <si>
-    <t>彼得·伊萬諾維奇·巴格拉季昂</t>
+    <t>彼得·伊万诺维奇·巴格拉季昂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%93%E7%89%B9%E7%83%88%C2%B7%E5%A8%81%E5%BB%89%E4%B8%89%E4%B8%96</t>
@@ -2867,7 +2864,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B2%E8%89%A6%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>砲艦戰爭</t>
+    <t>砲舰战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E7%91%9E%E6%88%98%E4%BA%89_(1808-1809)</t>
@@ -2897,13 +2894,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>芬蘭戰爭</t>
+    <t>芬兰战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%9F%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>英土戰爭</t>
+    <t>英土战争</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anglo-Russian_War_(1807%E2%80%9312)</t>
@@ -2927,25 +2924,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E6%B3%A2%E7%A6%8F%E7%88%BE%E7%B1%B3%E5%A5%A7%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>坎波福爾米奧條約</t>
+    <t>坎波福尔米奥条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1801%E5%B9%B4%E6%95%99%E5%8B%99%E5%B0%88%E7%B4%84</t>
   </si>
   <si>
-    <t>1801年教務專約</t>
+    <t>1801年教务专约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%82%E5%85%A7%E7%B6%AD%E7%88%BE%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>呂內維爾條約</t>
+    <t>吕内维尔条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%9C%A0%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>亞眠和約</t>
+    <t>亚眠和约</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Convention_of_Artlenburg</t>
@@ -2969,7 +2966,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E7%88%BE%E8%A5%BF%E7%89%B9%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>提爾西特條約</t>
+    <t>提尔西特条约</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Convention_of_Sintra</t>
@@ -2981,7 +2978,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B3%E5%B8%83%E5%80%AB%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>申布倫條約</t>
+    <t>申布伦条约</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Treaty_of_Paris_(1810)</t>
@@ -3005,13 +3002,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E8%92%99%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>休蒙條約</t>
+    <t>休蒙条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%88%BE%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>基爾條約</t>
+    <t>基尔条约</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Convention_of_Mantua</t>
@@ -3029,7 +3026,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E6%A2%9D%E7%B4%84_(1815%E5%B9%B4)</t>
   </si>
   <si>
-    <t>巴黎條約 (1815年)</t>
+    <t>巴黎条约 (1815年)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_books_about_the_Napoleonic_Wars</t>
@@ -3047,7 +3044,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD%E6%9C%9F%E7%9B%BC%E4%BA%BA%E4%BA%BA%E9%83%BD%E6%81%AA%E7%9B%A1%E5%85%B6%E8%B2%AC</t>
   </si>
   <si>
-    <t>英格蘭期盼人人都恪盡其責</t>
+    <t>英格兰期盼人人都恪尽其责</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Napoleonic_Wars_casualties</t>
@@ -3077,7 +3074,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -8268,7 +8265,7 @@
         <v>313</v>
       </c>
       <c r="F167" t="s">
-        <v>314</v>
+        <v>222</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8294,10 +8291,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>314</v>
+      </c>
+      <c r="F168" t="s">
         <v>315</v>
-      </c>
-      <c r="F168" t="s">
-        <v>316</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8323,10 +8320,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>316</v>
+      </c>
+      <c r="F169" t="s">
         <v>317</v>
-      </c>
-      <c r="F169" t="s">
-        <v>318</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8352,10 +8349,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>318</v>
+      </c>
+      <c r="F170" t="s">
         <v>319</v>
-      </c>
-      <c r="F170" t="s">
-        <v>320</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8381,10 +8378,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>320</v>
+      </c>
+      <c r="F171" t="s">
         <v>321</v>
-      </c>
-      <c r="F171" t="s">
-        <v>322</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8410,10 +8407,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>322</v>
+      </c>
+      <c r="F172" t="s">
         <v>323</v>
-      </c>
-      <c r="F172" t="s">
-        <v>324</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8439,10 +8436,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>324</v>
+      </c>
+      <c r="F173" t="s">
         <v>325</v>
-      </c>
-      <c r="F173" t="s">
-        <v>326</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8468,10 +8465,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>326</v>
+      </c>
+      <c r="F174" t="s">
         <v>327</v>
-      </c>
-      <c r="F174" t="s">
-        <v>328</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8497,10 +8494,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>328</v>
+      </c>
+      <c r="F175" t="s">
         <v>329</v>
-      </c>
-      <c r="F175" t="s">
-        <v>330</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8526,10 +8523,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>330</v>
+      </c>
+      <c r="F176" t="s">
         <v>331</v>
-      </c>
-      <c r="F176" t="s">
-        <v>332</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8555,10 +8552,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>332</v>
+      </c>
+      <c r="F177" t="s">
         <v>333</v>
-      </c>
-      <c r="F177" t="s">
-        <v>334</v>
       </c>
       <c r="G177" t="n">
         <v>5</v>
@@ -8584,10 +8581,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>334</v>
+      </c>
+      <c r="F178" t="s">
         <v>335</v>
-      </c>
-      <c r="F178" t="s">
-        <v>336</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8613,10 +8610,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>336</v>
+      </c>
+      <c r="F179" t="s">
         <v>337</v>
-      </c>
-      <c r="F179" t="s">
-        <v>338</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8642,10 +8639,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>338</v>
+      </c>
+      <c r="F180" t="s">
         <v>339</v>
-      </c>
-      <c r="F180" t="s">
-        <v>340</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -8671,10 +8668,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>340</v>
+      </c>
+      <c r="F181" t="s">
         <v>341</v>
-      </c>
-      <c r="F181" t="s">
-        <v>342</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8700,10 +8697,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>342</v>
+      </c>
+      <c r="F182" t="s">
         <v>343</v>
-      </c>
-      <c r="F182" t="s">
-        <v>344</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8729,10 +8726,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>344</v>
+      </c>
+      <c r="F183" t="s">
         <v>345</v>
-      </c>
-      <c r="F183" t="s">
-        <v>346</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8758,10 +8755,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>346</v>
+      </c>
+      <c r="F184" t="s">
         <v>347</v>
-      </c>
-      <c r="F184" t="s">
-        <v>348</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8787,10 +8784,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>348</v>
+      </c>
+      <c r="F185" t="s">
         <v>349</v>
-      </c>
-      <c r="F185" t="s">
-        <v>350</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8816,10 +8813,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>350</v>
+      </c>
+      <c r="F186" t="s">
         <v>351</v>
-      </c>
-      <c r="F186" t="s">
-        <v>352</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8845,10 +8842,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>352</v>
+      </c>
+      <c r="F187" t="s">
         <v>353</v>
-      </c>
-      <c r="F187" t="s">
-        <v>354</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8874,10 +8871,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>354</v>
+      </c>
+      <c r="F188" t="s">
         <v>355</v>
-      </c>
-      <c r="F188" t="s">
-        <v>356</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8903,10 +8900,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>356</v>
+      </c>
+      <c r="F189" t="s">
         <v>357</v>
-      </c>
-      <c r="F189" t="s">
-        <v>358</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8932,10 +8929,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>358</v>
+      </c>
+      <c r="F190" t="s">
         <v>359</v>
-      </c>
-      <c r="F190" t="s">
-        <v>360</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -8961,10 +8958,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>360</v>
+      </c>
+      <c r="F191" t="s">
         <v>361</v>
-      </c>
-      <c r="F191" t="s">
-        <v>362</v>
       </c>
       <c r="G191" t="n">
         <v>4</v>
@@ -8990,10 +8987,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>362</v>
+      </c>
+      <c r="F192" t="s">
         <v>363</v>
-      </c>
-      <c r="F192" t="s">
-        <v>364</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9019,10 +9016,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>364</v>
+      </c>
+      <c r="F193" t="s">
         <v>365</v>
-      </c>
-      <c r="F193" t="s">
-        <v>366</v>
       </c>
       <c r="G193" t="n">
         <v>9</v>
@@ -9048,10 +9045,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>366</v>
+      </c>
+      <c r="F194" t="s">
         <v>367</v>
-      </c>
-      <c r="F194" t="s">
-        <v>368</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -9077,10 +9074,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>368</v>
+      </c>
+      <c r="F195" t="s">
         <v>369</v>
-      </c>
-      <c r="F195" t="s">
-        <v>370</v>
       </c>
       <c r="G195" t="n">
         <v>3</v>
@@ -9106,10 +9103,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>370</v>
+      </c>
+      <c r="F196" t="s">
         <v>371</v>
-      </c>
-      <c r="F196" t="s">
-        <v>372</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9135,10 +9132,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>372</v>
+      </c>
+      <c r="F197" t="s">
         <v>373</v>
-      </c>
-      <c r="F197" t="s">
-        <v>374</v>
       </c>
       <c r="G197" t="n">
         <v>3</v>
@@ -9164,10 +9161,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>374</v>
+      </c>
+      <c r="F198" t="s">
         <v>375</v>
-      </c>
-      <c r="F198" t="s">
-        <v>376</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -9193,10 +9190,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>376</v>
+      </c>
+      <c r="F199" t="s">
         <v>377</v>
-      </c>
-      <c r="F199" t="s">
-        <v>378</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9222,10 +9219,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>378</v>
+      </c>
+      <c r="F200" t="s">
         <v>379</v>
-      </c>
-      <c r="F200" t="s">
-        <v>380</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9251,10 +9248,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>380</v>
+      </c>
+      <c r="F201" t="s">
         <v>381</v>
-      </c>
-      <c r="F201" t="s">
-        <v>382</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -9280,10 +9277,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>382</v>
+      </c>
+      <c r="F202" t="s">
         <v>383</v>
-      </c>
-      <c r="F202" t="s">
-        <v>384</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9309,10 +9306,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>384</v>
+      </c>
+      <c r="F203" t="s">
         <v>385</v>
-      </c>
-      <c r="F203" t="s">
-        <v>386</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9338,10 +9335,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>386</v>
+      </c>
+      <c r="F204" t="s">
         <v>387</v>
-      </c>
-      <c r="F204" t="s">
-        <v>388</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9367,10 +9364,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>388</v>
+      </c>
+      <c r="F205" t="s">
         <v>389</v>
-      </c>
-      <c r="F205" t="s">
-        <v>390</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9396,10 +9393,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>390</v>
+      </c>
+      <c r="F206" t="s">
         <v>391</v>
-      </c>
-      <c r="F206" t="s">
-        <v>392</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9425,10 +9422,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>392</v>
+      </c>
+      <c r="F207" t="s">
         <v>393</v>
-      </c>
-      <c r="F207" t="s">
-        <v>394</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9454,10 +9451,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>394</v>
+      </c>
+      <c r="F208" t="s">
         <v>395</v>
-      </c>
-      <c r="F208" t="s">
-        <v>396</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9483,10 +9480,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>396</v>
+      </c>
+      <c r="F209" t="s">
         <v>397</v>
-      </c>
-      <c r="F209" t="s">
-        <v>398</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9512,10 +9509,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>398</v>
+      </c>
+      <c r="F210" t="s">
         <v>399</v>
-      </c>
-      <c r="F210" t="s">
-        <v>400</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9541,10 +9538,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>400</v>
+      </c>
+      <c r="F211" t="s">
         <v>401</v>
-      </c>
-      <c r="F211" t="s">
-        <v>402</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9570,10 +9567,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>402</v>
+      </c>
+      <c r="F212" t="s">
         <v>403</v>
-      </c>
-      <c r="F212" t="s">
-        <v>404</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9599,10 +9596,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>404</v>
+      </c>
+      <c r="F213" t="s">
         <v>405</v>
-      </c>
-      <c r="F213" t="s">
-        <v>406</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9628,10 +9625,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>406</v>
+      </c>
+      <c r="F214" t="s">
         <v>407</v>
-      </c>
-      <c r="F214" t="s">
-        <v>408</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9657,10 +9654,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>408</v>
+      </c>
+      <c r="F215" t="s">
         <v>409</v>
-      </c>
-      <c r="F215" t="s">
-        <v>410</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9686,10 +9683,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>410</v>
+      </c>
+      <c r="F216" t="s">
         <v>411</v>
-      </c>
-      <c r="F216" t="s">
-        <v>412</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9715,10 +9712,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>412</v>
+      </c>
+      <c r="F217" t="s">
         <v>413</v>
-      </c>
-      <c r="F217" t="s">
-        <v>414</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9744,10 +9741,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>414</v>
+      </c>
+      <c r="F218" t="s">
         <v>415</v>
-      </c>
-      <c r="F218" t="s">
-        <v>416</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9773,10 +9770,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>416</v>
+      </c>
+      <c r="F219" t="s">
         <v>417</v>
-      </c>
-      <c r="F219" t="s">
-        <v>418</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9802,10 +9799,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>418</v>
+      </c>
+      <c r="F220" t="s">
         <v>419</v>
-      </c>
-      <c r="F220" t="s">
-        <v>420</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9831,10 +9828,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>420</v>
+      </c>
+      <c r="F221" t="s">
         <v>421</v>
-      </c>
-      <c r="F221" t="s">
-        <v>422</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9860,10 +9857,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>422</v>
+      </c>
+      <c r="F222" t="s">
         <v>423</v>
-      </c>
-      <c r="F222" t="s">
-        <v>424</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9889,10 +9886,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>424</v>
+      </c>
+      <c r="F223" t="s">
         <v>425</v>
-      </c>
-      <c r="F223" t="s">
-        <v>426</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9918,10 +9915,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>426</v>
+      </c>
+      <c r="F224" t="s">
         <v>427</v>
-      </c>
-      <c r="F224" t="s">
-        <v>428</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9947,10 +9944,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>428</v>
+      </c>
+      <c r="F225" t="s">
         <v>429</v>
-      </c>
-      <c r="F225" t="s">
-        <v>430</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9976,10 +9973,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>430</v>
+      </c>
+      <c r="F226" t="s">
         <v>431</v>
-      </c>
-      <c r="F226" t="s">
-        <v>432</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10005,10 +10002,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>432</v>
+      </c>
+      <c r="F227" t="s">
         <v>433</v>
-      </c>
-      <c r="F227" t="s">
-        <v>434</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10034,10 +10031,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>434</v>
+      </c>
+      <c r="F228" t="s">
         <v>435</v>
-      </c>
-      <c r="F228" t="s">
-        <v>436</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10063,10 +10060,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>436</v>
+      </c>
+      <c r="F229" t="s">
         <v>437</v>
-      </c>
-      <c r="F229" t="s">
-        <v>438</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10092,10 +10089,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>438</v>
+      </c>
+      <c r="F230" t="s">
         <v>439</v>
-      </c>
-      <c r="F230" t="s">
-        <v>440</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10121,10 +10118,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>440</v>
+      </c>
+      <c r="F231" t="s">
         <v>441</v>
-      </c>
-      <c r="F231" t="s">
-        <v>442</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10150,10 +10147,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>442</v>
+      </c>
+      <c r="F232" t="s">
         <v>443</v>
-      </c>
-      <c r="F232" t="s">
-        <v>444</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10179,10 +10176,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>444</v>
+      </c>
+      <c r="F233" t="s">
         <v>445</v>
-      </c>
-      <c r="F233" t="s">
-        <v>446</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10208,10 +10205,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>446</v>
+      </c>
+      <c r="F234" t="s">
         <v>447</v>
-      </c>
-      <c r="F234" t="s">
-        <v>448</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10237,10 +10234,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>448</v>
+      </c>
+      <c r="F235" t="s">
         <v>449</v>
-      </c>
-      <c r="F235" t="s">
-        <v>450</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10266,10 +10263,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>450</v>
+      </c>
+      <c r="F236" t="s">
         <v>451</v>
-      </c>
-      <c r="F236" t="s">
-        <v>452</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10295,10 +10292,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>452</v>
+      </c>
+      <c r="F237" t="s">
         <v>453</v>
-      </c>
-      <c r="F237" t="s">
-        <v>454</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10324,10 +10321,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>454</v>
+      </c>
+      <c r="F238" t="s">
         <v>455</v>
-      </c>
-      <c r="F238" t="s">
-        <v>456</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10353,10 +10350,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>456</v>
+      </c>
+      <c r="F239" t="s">
         <v>457</v>
-      </c>
-      <c r="F239" t="s">
-        <v>458</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10382,10 +10379,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>458</v>
+      </c>
+      <c r="F240" t="s">
         <v>459</v>
-      </c>
-      <c r="F240" t="s">
-        <v>460</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10411,10 +10408,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>460</v>
+      </c>
+      <c r="F241" t="s">
         <v>461</v>
-      </c>
-      <c r="F241" t="s">
-        <v>462</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10440,10 +10437,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>462</v>
+      </c>
+      <c r="F242" t="s">
         <v>463</v>
-      </c>
-      <c r="F242" t="s">
-        <v>464</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10469,10 +10466,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>464</v>
+      </c>
+      <c r="F243" t="s">
         <v>465</v>
-      </c>
-      <c r="F243" t="s">
-        <v>466</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10498,10 +10495,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>466</v>
+      </c>
+      <c r="F244" t="s">
         <v>467</v>
-      </c>
-      <c r="F244" t="s">
-        <v>468</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10527,10 +10524,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>468</v>
+      </c>
+      <c r="F245" t="s">
         <v>469</v>
-      </c>
-      <c r="F245" t="s">
-        <v>470</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10556,10 +10553,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>470</v>
+      </c>
+      <c r="F246" t="s">
         <v>471</v>
-      </c>
-      <c r="F246" t="s">
-        <v>472</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10585,10 +10582,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>472</v>
+      </c>
+      <c r="F247" t="s">
         <v>473</v>
-      </c>
-      <c r="F247" t="s">
-        <v>474</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10614,10 +10611,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>474</v>
+      </c>
+      <c r="F248" t="s">
         <v>475</v>
-      </c>
-      <c r="F248" t="s">
-        <v>476</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10643,10 +10640,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>476</v>
+      </c>
+      <c r="F249" t="s">
         <v>477</v>
-      </c>
-      <c r="F249" t="s">
-        <v>478</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10672,10 +10669,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>478</v>
+      </c>
+      <c r="F250" t="s">
         <v>479</v>
-      </c>
-      <c r="F250" t="s">
-        <v>480</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10701,10 +10698,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>480</v>
+      </c>
+      <c r="F251" t="s">
         <v>481</v>
-      </c>
-      <c r="F251" t="s">
-        <v>482</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10730,10 +10727,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>482</v>
+      </c>
+      <c r="F252" t="s">
         <v>483</v>
-      </c>
-      <c r="F252" t="s">
-        <v>484</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10759,10 +10756,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>484</v>
+      </c>
+      <c r="F253" t="s">
         <v>485</v>
-      </c>
-      <c r="F253" t="s">
-        <v>486</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10788,10 +10785,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>486</v>
+      </c>
+      <c r="F254" t="s">
         <v>487</v>
-      </c>
-      <c r="F254" t="s">
-        <v>488</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10817,10 +10814,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>488</v>
+      </c>
+      <c r="F255" t="s">
         <v>489</v>
-      </c>
-      <c r="F255" t="s">
-        <v>490</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10846,10 +10843,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>490</v>
+      </c>
+      <c r="F256" t="s">
         <v>491</v>
-      </c>
-      <c r="F256" t="s">
-        <v>492</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10875,10 +10872,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>492</v>
+      </c>
+      <c r="F257" t="s">
         <v>493</v>
-      </c>
-      <c r="F257" t="s">
-        <v>494</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10904,10 +10901,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>494</v>
+      </c>
+      <c r="F258" t="s">
         <v>495</v>
-      </c>
-      <c r="F258" t="s">
-        <v>496</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10933,10 +10930,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>496</v>
+      </c>
+      <c r="F259" t="s">
         <v>497</v>
-      </c>
-      <c r="F259" t="s">
-        <v>498</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10962,10 +10959,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>498</v>
+      </c>
+      <c r="F260" t="s">
         <v>499</v>
-      </c>
-      <c r="F260" t="s">
-        <v>500</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10991,10 +10988,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>500</v>
+      </c>
+      <c r="F261" t="s">
         <v>501</v>
-      </c>
-      <c r="F261" t="s">
-        <v>502</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11020,10 +11017,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>502</v>
+      </c>
+      <c r="F262" t="s">
         <v>503</v>
-      </c>
-      <c r="F262" t="s">
-        <v>504</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11049,10 +11046,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>504</v>
+      </c>
+      <c r="F263" t="s">
         <v>505</v>
-      </c>
-      <c r="F263" t="s">
-        <v>506</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11078,10 +11075,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>506</v>
+      </c>
+      <c r="F264" t="s">
         <v>507</v>
-      </c>
-      <c r="F264" t="s">
-        <v>508</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11107,10 +11104,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>508</v>
+      </c>
+      <c r="F265" t="s">
         <v>509</v>
-      </c>
-      <c r="F265" t="s">
-        <v>510</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11136,10 +11133,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>510</v>
+      </c>
+      <c r="F266" t="s">
         <v>511</v>
-      </c>
-      <c r="F266" t="s">
-        <v>512</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11165,10 +11162,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>512</v>
+      </c>
+      <c r="F267" t="s">
         <v>513</v>
-      </c>
-      <c r="F267" t="s">
-        <v>514</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11194,10 +11191,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>514</v>
+      </c>
+      <c r="F268" t="s">
         <v>515</v>
-      </c>
-      <c r="F268" t="s">
-        <v>516</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11223,10 +11220,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>516</v>
+      </c>
+      <c r="F269" t="s">
         <v>517</v>
-      </c>
-      <c r="F269" t="s">
-        <v>518</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11252,10 +11249,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>518</v>
+      </c>
+      <c r="F270" t="s">
         <v>519</v>
-      </c>
-      <c r="F270" t="s">
-        <v>520</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11281,10 +11278,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>520</v>
+      </c>
+      <c r="F271" t="s">
         <v>521</v>
-      </c>
-      <c r="F271" t="s">
-        <v>522</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11310,10 +11307,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>522</v>
+      </c>
+      <c r="F272" t="s">
         <v>523</v>
-      </c>
-      <c r="F272" t="s">
-        <v>524</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11339,10 +11336,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>524</v>
+      </c>
+      <c r="F273" t="s">
         <v>525</v>
-      </c>
-      <c r="F273" t="s">
-        <v>526</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11368,10 +11365,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>526</v>
+      </c>
+      <c r="F274" t="s">
         <v>527</v>
-      </c>
-      <c r="F274" t="s">
-        <v>528</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11397,10 +11394,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>528</v>
+      </c>
+      <c r="F275" t="s">
         <v>529</v>
-      </c>
-      <c r="F275" t="s">
-        <v>530</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11426,10 +11423,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>530</v>
+      </c>
+      <c r="F276" t="s">
         <v>531</v>
-      </c>
-      <c r="F276" t="s">
-        <v>532</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11455,10 +11452,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>532</v>
+      </c>
+      <c r="F277" t="s">
         <v>533</v>
-      </c>
-      <c r="F277" t="s">
-        <v>534</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11484,10 +11481,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>534</v>
+      </c>
+      <c r="F278" t="s">
         <v>535</v>
-      </c>
-      <c r="F278" t="s">
-        <v>536</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11513,10 +11510,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>536</v>
+      </c>
+      <c r="F279" t="s">
         <v>537</v>
-      </c>
-      <c r="F279" t="s">
-        <v>538</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11542,10 +11539,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>538</v>
+      </c>
+      <c r="F280" t="s">
         <v>539</v>
-      </c>
-      <c r="F280" t="s">
-        <v>540</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11571,10 +11568,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>540</v>
+      </c>
+      <c r="F281" t="s">
         <v>541</v>
-      </c>
-      <c r="F281" t="s">
-        <v>542</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11600,10 +11597,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>542</v>
+      </c>
+      <c r="F282" t="s">
         <v>543</v>
-      </c>
-      <c r="F282" t="s">
-        <v>544</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11629,10 +11626,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>544</v>
+      </c>
+      <c r="F283" t="s">
         <v>545</v>
-      </c>
-      <c r="F283" t="s">
-        <v>546</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11658,10 +11655,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>546</v>
+      </c>
+      <c r="F284" t="s">
         <v>547</v>
-      </c>
-      <c r="F284" t="s">
-        <v>548</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11687,10 +11684,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>548</v>
+      </c>
+      <c r="F285" t="s">
         <v>549</v>
-      </c>
-      <c r="F285" t="s">
-        <v>550</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11716,10 +11713,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>550</v>
+      </c>
+      <c r="F286" t="s">
         <v>551</v>
-      </c>
-      <c r="F286" t="s">
-        <v>552</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11745,10 +11742,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>552</v>
+      </c>
+      <c r="F287" t="s">
         <v>553</v>
-      </c>
-      <c r="F287" t="s">
-        <v>554</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11774,10 +11771,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>554</v>
+      </c>
+      <c r="F288" t="s">
         <v>555</v>
-      </c>
-      <c r="F288" t="s">
-        <v>556</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11803,10 +11800,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>556</v>
+      </c>
+      <c r="F289" t="s">
         <v>557</v>
-      </c>
-      <c r="F289" t="s">
-        <v>558</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11832,10 +11829,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>558</v>
+      </c>
+      <c r="F290" t="s">
         <v>559</v>
-      </c>
-      <c r="F290" t="s">
-        <v>560</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11861,10 +11858,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>560</v>
+      </c>
+      <c r="F291" t="s">
         <v>561</v>
-      </c>
-      <c r="F291" t="s">
-        <v>562</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11890,10 +11887,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>562</v>
+      </c>
+      <c r="F292" t="s">
         <v>563</v>
-      </c>
-      <c r="F292" t="s">
-        <v>564</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11919,10 +11916,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>564</v>
+      </c>
+      <c r="F293" t="s">
         <v>565</v>
-      </c>
-      <c r="F293" t="s">
-        <v>566</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11948,10 +11945,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>566</v>
+      </c>
+      <c r="F294" t="s">
         <v>567</v>
-      </c>
-      <c r="F294" t="s">
-        <v>568</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11977,10 +11974,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>568</v>
+      </c>
+      <c r="F295" t="s">
         <v>569</v>
-      </c>
-      <c r="F295" t="s">
-        <v>570</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12006,10 +12003,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>570</v>
+      </c>
+      <c r="F296" t="s">
         <v>571</v>
-      </c>
-      <c r="F296" t="s">
-        <v>572</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12035,10 +12032,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>572</v>
+      </c>
+      <c r="F297" t="s">
         <v>573</v>
-      </c>
-      <c r="F297" t="s">
-        <v>574</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12064,10 +12061,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
+        <v>574</v>
+      </c>
+      <c r="F298" t="s">
         <v>575</v>
-      </c>
-      <c r="F298" t="s">
-        <v>576</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12093,10 +12090,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>576</v>
+      </c>
+      <c r="F299" t="s">
         <v>577</v>
-      </c>
-      <c r="F299" t="s">
-        <v>578</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12122,10 +12119,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>578</v>
+      </c>
+      <c r="F300" t="s">
         <v>579</v>
-      </c>
-      <c r="F300" t="s">
-        <v>580</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12151,10 +12148,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
+        <v>580</v>
+      </c>
+      <c r="F301" t="s">
         <v>581</v>
-      </c>
-      <c r="F301" t="s">
-        <v>582</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12180,10 +12177,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
+        <v>582</v>
+      </c>
+      <c r="F302" t="s">
         <v>583</v>
-      </c>
-      <c r="F302" t="s">
-        <v>584</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12209,10 +12206,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
+        <v>584</v>
+      </c>
+      <c r="F303" t="s">
         <v>585</v>
-      </c>
-      <c r="F303" t="s">
-        <v>586</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12238,10 +12235,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
+        <v>586</v>
+      </c>
+      <c r="F304" t="s">
         <v>587</v>
-      </c>
-      <c r="F304" t="s">
-        <v>588</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12267,10 +12264,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
+        <v>588</v>
+      </c>
+      <c r="F305" t="s">
         <v>589</v>
-      </c>
-      <c r="F305" t="s">
-        <v>590</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12296,10 +12293,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>590</v>
+      </c>
+      <c r="F306" t="s">
         <v>591</v>
-      </c>
-      <c r="F306" t="s">
-        <v>592</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12325,10 +12322,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
+        <v>592</v>
+      </c>
+      <c r="F307" t="s">
         <v>593</v>
-      </c>
-      <c r="F307" t="s">
-        <v>594</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12354,10 +12351,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
+        <v>594</v>
+      </c>
+      <c r="F308" t="s">
         <v>595</v>
-      </c>
-      <c r="F308" t="s">
-        <v>596</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12383,10 +12380,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
+        <v>596</v>
+      </c>
+      <c r="F309" t="s">
         <v>597</v>
-      </c>
-      <c r="F309" t="s">
-        <v>598</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12412,10 +12409,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
+        <v>598</v>
+      </c>
+      <c r="F310" t="s">
         <v>599</v>
-      </c>
-      <c r="F310" t="s">
-        <v>600</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12441,10 +12438,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
+        <v>600</v>
+      </c>
+      <c r="F311" t="s">
         <v>601</v>
-      </c>
-      <c r="F311" t="s">
-        <v>602</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12470,10 +12467,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
+        <v>602</v>
+      </c>
+      <c r="F312" t="s">
         <v>603</v>
-      </c>
-      <c r="F312" t="s">
-        <v>604</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12499,10 +12496,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
+        <v>604</v>
+      </c>
+      <c r="F313" t="s">
         <v>605</v>
-      </c>
-      <c r="F313" t="s">
-        <v>606</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12528,10 +12525,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
+        <v>606</v>
+      </c>
+      <c r="F314" t="s">
         <v>607</v>
-      </c>
-      <c r="F314" t="s">
-        <v>608</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12557,10 +12554,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
+        <v>608</v>
+      </c>
+      <c r="F315" t="s">
         <v>609</v>
-      </c>
-      <c r="F315" t="s">
-        <v>610</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12586,10 +12583,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
+        <v>610</v>
+      </c>
+      <c r="F316" t="s">
         <v>611</v>
-      </c>
-      <c r="F316" t="s">
-        <v>612</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12615,10 +12612,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
+        <v>612</v>
+      </c>
+      <c r="F317" t="s">
         <v>613</v>
-      </c>
-      <c r="F317" t="s">
-        <v>614</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12644,10 +12641,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
+        <v>614</v>
+      </c>
+      <c r="F318" t="s">
         <v>615</v>
-      </c>
-      <c r="F318" t="s">
-        <v>616</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12673,10 +12670,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
+        <v>616</v>
+      </c>
+      <c r="F319" t="s">
         <v>617</v>
-      </c>
-      <c r="F319" t="s">
-        <v>618</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12702,10 +12699,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
+        <v>618</v>
+      </c>
+      <c r="F320" t="s">
         <v>619</v>
-      </c>
-      <c r="F320" t="s">
-        <v>620</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12731,10 +12728,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
+        <v>620</v>
+      </c>
+      <c r="F321" t="s">
         <v>621</v>
-      </c>
-      <c r="F321" t="s">
-        <v>622</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12760,10 +12757,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
+        <v>622</v>
+      </c>
+      <c r="F322" t="s">
         <v>623</v>
-      </c>
-      <c r="F322" t="s">
-        <v>624</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12789,10 +12786,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
+        <v>624</v>
+      </c>
+      <c r="F323" t="s">
         <v>625</v>
-      </c>
-      <c r="F323" t="s">
-        <v>626</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12818,10 +12815,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
+        <v>626</v>
+      </c>
+      <c r="F324" t="s">
         <v>627</v>
-      </c>
-      <c r="F324" t="s">
-        <v>628</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12847,10 +12844,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
+        <v>628</v>
+      </c>
+      <c r="F325" t="s">
         <v>629</v>
-      </c>
-      <c r="F325" t="s">
-        <v>630</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12876,10 +12873,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
+        <v>630</v>
+      </c>
+      <c r="F326" t="s">
         <v>631</v>
-      </c>
-      <c r="F326" t="s">
-        <v>632</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12905,10 +12902,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
+        <v>632</v>
+      </c>
+      <c r="F327" t="s">
         <v>633</v>
-      </c>
-      <c r="F327" t="s">
-        <v>634</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12934,10 +12931,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
+        <v>634</v>
+      </c>
+      <c r="F328" t="s">
         <v>635</v>
-      </c>
-      <c r="F328" t="s">
-        <v>636</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12963,10 +12960,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
+        <v>636</v>
+      </c>
+      <c r="F329" t="s">
         <v>637</v>
-      </c>
-      <c r="F329" t="s">
-        <v>638</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12992,10 +12989,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
+        <v>638</v>
+      </c>
+      <c r="F330" t="s">
         <v>639</v>
-      </c>
-      <c r="F330" t="s">
-        <v>640</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13021,10 +13018,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
+        <v>640</v>
+      </c>
+      <c r="F331" t="s">
         <v>641</v>
-      </c>
-      <c r="F331" t="s">
-        <v>642</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13050,10 +13047,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
+        <v>642</v>
+      </c>
+      <c r="F332" t="s">
         <v>643</v>
-      </c>
-      <c r="F332" t="s">
-        <v>644</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13079,10 +13076,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
+        <v>644</v>
+      </c>
+      <c r="F333" t="s">
         <v>645</v>
-      </c>
-      <c r="F333" t="s">
-        <v>646</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13108,10 +13105,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
+        <v>646</v>
+      </c>
+      <c r="F334" t="s">
         <v>647</v>
-      </c>
-      <c r="F334" t="s">
-        <v>648</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13137,10 +13134,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
+        <v>648</v>
+      </c>
+      <c r="F335" t="s">
         <v>649</v>
-      </c>
-      <c r="F335" t="s">
-        <v>650</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13166,10 +13163,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
+        <v>650</v>
+      </c>
+      <c r="F336" t="s">
         <v>651</v>
-      </c>
-      <c r="F336" t="s">
-        <v>652</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13195,10 +13192,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
+        <v>652</v>
+      </c>
+      <c r="F337" t="s">
         <v>653</v>
-      </c>
-      <c r="F337" t="s">
-        <v>654</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13224,10 +13221,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
+        <v>654</v>
+      </c>
+      <c r="F338" t="s">
         <v>655</v>
-      </c>
-      <c r="F338" t="s">
-        <v>656</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13253,10 +13250,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
+        <v>656</v>
+      </c>
+      <c r="F339" t="s">
         <v>657</v>
-      </c>
-      <c r="F339" t="s">
-        <v>658</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13282,10 +13279,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
+        <v>658</v>
+      </c>
+      <c r="F340" t="s">
         <v>659</v>
-      </c>
-      <c r="F340" t="s">
-        <v>660</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13311,10 +13308,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
+        <v>660</v>
+      </c>
+      <c r="F341" t="s">
         <v>661</v>
-      </c>
-      <c r="F341" t="s">
-        <v>662</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13340,10 +13337,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
+        <v>662</v>
+      </c>
+      <c r="F342" t="s">
         <v>663</v>
-      </c>
-      <c r="F342" t="s">
-        <v>664</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13369,10 +13366,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
+        <v>664</v>
+      </c>
+      <c r="F343" t="s">
         <v>665</v>
-      </c>
-      <c r="F343" t="s">
-        <v>666</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13398,10 +13395,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
+        <v>666</v>
+      </c>
+      <c r="F344" t="s">
         <v>667</v>
-      </c>
-      <c r="F344" t="s">
-        <v>668</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13427,10 +13424,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
+        <v>668</v>
+      </c>
+      <c r="F345" t="s">
         <v>669</v>
-      </c>
-      <c r="F345" t="s">
-        <v>670</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13456,10 +13453,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
+        <v>670</v>
+      </c>
+      <c r="F346" t="s">
         <v>671</v>
-      </c>
-      <c r="F346" t="s">
-        <v>672</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13485,10 +13482,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
+        <v>672</v>
+      </c>
+      <c r="F347" t="s">
         <v>673</v>
-      </c>
-      <c r="F347" t="s">
-        <v>674</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13514,10 +13511,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
+        <v>674</v>
+      </c>
+      <c r="F348" t="s">
         <v>675</v>
-      </c>
-      <c r="F348" t="s">
-        <v>676</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13543,10 +13540,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
+        <v>676</v>
+      </c>
+      <c r="F349" t="s">
         <v>677</v>
-      </c>
-      <c r="F349" t="s">
-        <v>678</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13572,10 +13569,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
+        <v>678</v>
+      </c>
+      <c r="F350" t="s">
         <v>679</v>
-      </c>
-      <c r="F350" t="s">
-        <v>680</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13601,10 +13598,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
+        <v>680</v>
+      </c>
+      <c r="F351" t="s">
         <v>681</v>
-      </c>
-      <c r="F351" t="s">
-        <v>682</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13630,10 +13627,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
+        <v>682</v>
+      </c>
+      <c r="F352" t="s">
         <v>683</v>
-      </c>
-      <c r="F352" t="s">
-        <v>684</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13659,10 +13656,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
+        <v>684</v>
+      </c>
+      <c r="F353" t="s">
         <v>685</v>
-      </c>
-      <c r="F353" t="s">
-        <v>686</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13688,10 +13685,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
+        <v>686</v>
+      </c>
+      <c r="F354" t="s">
         <v>687</v>
-      </c>
-      <c r="F354" t="s">
-        <v>688</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13717,10 +13714,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
+        <v>688</v>
+      </c>
+      <c r="F355" t="s">
         <v>689</v>
-      </c>
-      <c r="F355" t="s">
-        <v>690</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13746,10 +13743,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
+        <v>690</v>
+      </c>
+      <c r="F356" t="s">
         <v>691</v>
-      </c>
-      <c r="F356" t="s">
-        <v>692</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13775,10 +13772,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
+        <v>692</v>
+      </c>
+      <c r="F357" t="s">
         <v>693</v>
-      </c>
-      <c r="F357" t="s">
-        <v>694</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13804,10 +13801,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
+        <v>694</v>
+      </c>
+      <c r="F358" t="s">
         <v>695</v>
-      </c>
-      <c r="F358" t="s">
-        <v>696</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13833,10 +13830,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
+        <v>696</v>
+      </c>
+      <c r="F359" t="s">
         <v>697</v>
-      </c>
-      <c r="F359" t="s">
-        <v>698</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13862,10 +13859,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
+        <v>698</v>
+      </c>
+      <c r="F360" t="s">
         <v>699</v>
-      </c>
-      <c r="F360" t="s">
-        <v>700</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13891,10 +13888,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
+        <v>700</v>
+      </c>
+      <c r="F361" t="s">
         <v>701</v>
-      </c>
-      <c r="F361" t="s">
-        <v>702</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13920,10 +13917,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
+        <v>702</v>
+      </c>
+      <c r="F362" t="s">
         <v>703</v>
-      </c>
-      <c r="F362" t="s">
-        <v>704</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13949,10 +13946,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
+        <v>704</v>
+      </c>
+      <c r="F363" t="s">
         <v>705</v>
-      </c>
-      <c r="F363" t="s">
-        <v>706</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13978,10 +13975,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
+        <v>706</v>
+      </c>
+      <c r="F364" t="s">
         <v>707</v>
-      </c>
-      <c r="F364" t="s">
-        <v>708</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14007,10 +14004,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
+        <v>708</v>
+      </c>
+      <c r="F365" t="s">
         <v>709</v>
-      </c>
-      <c r="F365" t="s">
-        <v>710</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14036,10 +14033,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
+        <v>710</v>
+      </c>
+      <c r="F366" t="s">
         <v>711</v>
-      </c>
-      <c r="F366" t="s">
-        <v>712</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14065,10 +14062,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
+        <v>712</v>
+      </c>
+      <c r="F367" t="s">
         <v>713</v>
-      </c>
-      <c r="F367" t="s">
-        <v>714</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14094,10 +14091,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
+        <v>714</v>
+      </c>
+      <c r="F368" t="s">
         <v>715</v>
-      </c>
-      <c r="F368" t="s">
-        <v>716</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14123,10 +14120,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
+        <v>716</v>
+      </c>
+      <c r="F369" t="s">
         <v>717</v>
-      </c>
-      <c r="F369" t="s">
-        <v>718</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14152,10 +14149,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
+        <v>718</v>
+      </c>
+      <c r="F370" t="s">
         <v>719</v>
-      </c>
-      <c r="F370" t="s">
-        <v>720</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14181,10 +14178,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
+        <v>720</v>
+      </c>
+      <c r="F371" t="s">
         <v>721</v>
-      </c>
-      <c r="F371" t="s">
-        <v>722</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14210,10 +14207,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
+        <v>722</v>
+      </c>
+      <c r="F372" t="s">
         <v>723</v>
-      </c>
-      <c r="F372" t="s">
-        <v>724</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14239,10 +14236,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
+        <v>724</v>
+      </c>
+      <c r="F373" t="s">
         <v>725</v>
-      </c>
-      <c r="F373" t="s">
-        <v>726</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14268,10 +14265,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
+        <v>726</v>
+      </c>
+      <c r="F374" t="s">
         <v>727</v>
-      </c>
-      <c r="F374" t="s">
-        <v>728</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14297,10 +14294,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
+        <v>728</v>
+      </c>
+      <c r="F375" t="s">
         <v>729</v>
-      </c>
-      <c r="F375" t="s">
-        <v>730</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14326,10 +14323,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
+        <v>730</v>
+      </c>
+      <c r="F376" t="s">
         <v>731</v>
-      </c>
-      <c r="F376" t="s">
-        <v>732</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14355,10 +14352,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
+        <v>732</v>
+      </c>
+      <c r="F377" t="s">
         <v>733</v>
-      </c>
-      <c r="F377" t="s">
-        <v>734</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14384,10 +14381,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
+        <v>734</v>
+      </c>
+      <c r="F378" t="s">
         <v>735</v>
-      </c>
-      <c r="F378" t="s">
-        <v>736</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14413,10 +14410,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
+        <v>736</v>
+      </c>
+      <c r="F379" t="s">
         <v>737</v>
-      </c>
-      <c r="F379" t="s">
-        <v>738</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14442,10 +14439,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
+        <v>738</v>
+      </c>
+      <c r="F380" t="s">
         <v>739</v>
-      </c>
-      <c r="F380" t="s">
-        <v>740</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14471,10 +14468,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
+        <v>740</v>
+      </c>
+      <c r="F381" t="s">
         <v>741</v>
-      </c>
-      <c r="F381" t="s">
-        <v>742</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14500,10 +14497,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
+        <v>742</v>
+      </c>
+      <c r="F382" t="s">
         <v>743</v>
-      </c>
-      <c r="F382" t="s">
-        <v>744</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14529,10 +14526,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
+        <v>744</v>
+      </c>
+      <c r="F383" t="s">
         <v>745</v>
-      </c>
-      <c r="F383" t="s">
-        <v>746</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14558,10 +14555,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
+        <v>746</v>
+      </c>
+      <c r="F384" t="s">
         <v>747</v>
-      </c>
-      <c r="F384" t="s">
-        <v>748</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14587,10 +14584,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
+        <v>748</v>
+      </c>
+      <c r="F385" t="s">
         <v>749</v>
-      </c>
-      <c r="F385" t="s">
-        <v>750</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14616,10 +14613,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
+        <v>750</v>
+      </c>
+      <c r="F386" t="s">
         <v>751</v>
-      </c>
-      <c r="F386" t="s">
-        <v>752</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14645,10 +14642,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
+        <v>752</v>
+      </c>
+      <c r="F387" t="s">
         <v>753</v>
-      </c>
-      <c r="F387" t="s">
-        <v>754</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14674,10 +14671,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
+        <v>754</v>
+      </c>
+      <c r="F388" t="s">
         <v>755</v>
-      </c>
-      <c r="F388" t="s">
-        <v>756</v>
       </c>
       <c r="G388" t="n">
         <v>2</v>
@@ -14703,10 +14700,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
+        <v>756</v>
+      </c>
+      <c r="F389" t="s">
         <v>757</v>
-      </c>
-      <c r="F389" t="s">
-        <v>758</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14732,10 +14729,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
+        <v>758</v>
+      </c>
+      <c r="F390" t="s">
         <v>759</v>
-      </c>
-      <c r="F390" t="s">
-        <v>760</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14761,10 +14758,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
+        <v>760</v>
+      </c>
+      <c r="F391" t="s">
         <v>761</v>
-      </c>
-      <c r="F391" t="s">
-        <v>762</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14790,10 +14787,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
+        <v>762</v>
+      </c>
+      <c r="F392" t="s">
         <v>763</v>
-      </c>
-      <c r="F392" t="s">
-        <v>764</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14819,10 +14816,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
+        <v>764</v>
+      </c>
+      <c r="F393" t="s">
         <v>765</v>
-      </c>
-      <c r="F393" t="s">
-        <v>766</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14848,10 +14845,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
+        <v>766</v>
+      </c>
+      <c r="F394" t="s">
         <v>767</v>
-      </c>
-      <c r="F394" t="s">
-        <v>768</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14877,10 +14874,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
+        <v>768</v>
+      </c>
+      <c r="F395" t="s">
         <v>769</v>
-      </c>
-      <c r="F395" t="s">
-        <v>770</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14906,10 +14903,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
+        <v>770</v>
+      </c>
+      <c r="F396" t="s">
         <v>771</v>
-      </c>
-      <c r="F396" t="s">
-        <v>772</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14935,10 +14932,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
+        <v>772</v>
+      </c>
+      <c r="F397" t="s">
         <v>773</v>
-      </c>
-      <c r="F397" t="s">
-        <v>774</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14964,10 +14961,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
+        <v>774</v>
+      </c>
+      <c r="F398" t="s">
         <v>775</v>
-      </c>
-      <c r="F398" t="s">
-        <v>776</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14993,10 +14990,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
+        <v>776</v>
+      </c>
+      <c r="F399" t="s">
         <v>777</v>
-      </c>
-      <c r="F399" t="s">
-        <v>778</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15022,10 +15019,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
+        <v>778</v>
+      </c>
+      <c r="F400" t="s">
         <v>779</v>
-      </c>
-      <c r="F400" t="s">
-        <v>780</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15051,10 +15048,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
+        <v>780</v>
+      </c>
+      <c r="F401" t="s">
         <v>781</v>
-      </c>
-      <c r="F401" t="s">
-        <v>782</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15080,10 +15077,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
+        <v>782</v>
+      </c>
+      <c r="F402" t="s">
         <v>783</v>
-      </c>
-      <c r="F402" t="s">
-        <v>784</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15109,10 +15106,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
+        <v>784</v>
+      </c>
+      <c r="F403" t="s">
         <v>785</v>
-      </c>
-      <c r="F403" t="s">
-        <v>786</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15138,10 +15135,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
+        <v>786</v>
+      </c>
+      <c r="F404" t="s">
         <v>787</v>
-      </c>
-      <c r="F404" t="s">
-        <v>788</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15167,10 +15164,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
+        <v>788</v>
+      </c>
+      <c r="F405" t="s">
         <v>789</v>
-      </c>
-      <c r="F405" t="s">
-        <v>790</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15196,10 +15193,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
+        <v>790</v>
+      </c>
+      <c r="F406" t="s">
         <v>791</v>
-      </c>
-      <c r="F406" t="s">
-        <v>792</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15225,10 +15222,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
+        <v>792</v>
+      </c>
+      <c r="F407" t="s">
         <v>793</v>
-      </c>
-      <c r="F407" t="s">
-        <v>794</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15254,10 +15251,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
+        <v>794</v>
+      </c>
+      <c r="F408" t="s">
         <v>795</v>
-      </c>
-      <c r="F408" t="s">
-        <v>796</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15283,10 +15280,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
+        <v>796</v>
+      </c>
+      <c r="F409" t="s">
         <v>797</v>
-      </c>
-      <c r="F409" t="s">
-        <v>798</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15312,10 +15309,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
+        <v>798</v>
+      </c>
+      <c r="F410" t="s">
         <v>799</v>
-      </c>
-      <c r="F410" t="s">
-        <v>800</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15341,10 +15338,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
+        <v>800</v>
+      </c>
+      <c r="F411" t="s">
         <v>801</v>
-      </c>
-      <c r="F411" t="s">
-        <v>802</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15370,10 +15367,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
+        <v>802</v>
+      </c>
+      <c r="F412" t="s">
         <v>803</v>
-      </c>
-      <c r="F412" t="s">
-        <v>804</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15399,10 +15396,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
+        <v>804</v>
+      </c>
+      <c r="F413" t="s">
         <v>805</v>
-      </c>
-      <c r="F413" t="s">
-        <v>806</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15428,10 +15425,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
+        <v>806</v>
+      </c>
+      <c r="F414" t="s">
         <v>807</v>
-      </c>
-      <c r="F414" t="s">
-        <v>808</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15457,10 +15454,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
+        <v>808</v>
+      </c>
+      <c r="F415" t="s">
         <v>809</v>
-      </c>
-      <c r="F415" t="s">
-        <v>810</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15486,10 +15483,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
+        <v>810</v>
+      </c>
+      <c r="F416" t="s">
         <v>811</v>
-      </c>
-      <c r="F416" t="s">
-        <v>812</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15515,10 +15512,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
+        <v>812</v>
+      </c>
+      <c r="F417" t="s">
         <v>813</v>
-      </c>
-      <c r="F417" t="s">
-        <v>814</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15544,10 +15541,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
+        <v>814</v>
+      </c>
+      <c r="F418" t="s">
         <v>815</v>
-      </c>
-      <c r="F418" t="s">
-        <v>816</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15573,10 +15570,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
+        <v>816</v>
+      </c>
+      <c r="F419" t="s">
         <v>817</v>
-      </c>
-      <c r="F419" t="s">
-        <v>818</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15602,10 +15599,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
+        <v>818</v>
+      </c>
+      <c r="F420" t="s">
         <v>819</v>
-      </c>
-      <c r="F420" t="s">
-        <v>820</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15631,10 +15628,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
+        <v>820</v>
+      </c>
+      <c r="F421" t="s">
         <v>821</v>
-      </c>
-      <c r="F421" t="s">
-        <v>822</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15660,10 +15657,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
+        <v>822</v>
+      </c>
+      <c r="F422" t="s">
         <v>823</v>
-      </c>
-      <c r="F422" t="s">
-        <v>824</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15689,10 +15686,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
+        <v>824</v>
+      </c>
+      <c r="F423" t="s">
         <v>825</v>
-      </c>
-      <c r="F423" t="s">
-        <v>826</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15718,10 +15715,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
+        <v>826</v>
+      </c>
+      <c r="F424" t="s">
         <v>827</v>
-      </c>
-      <c r="F424" t="s">
-        <v>828</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15747,10 +15744,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
+        <v>828</v>
+      </c>
+      <c r="F425" t="s">
         <v>829</v>
-      </c>
-      <c r="F425" t="s">
-        <v>830</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15776,10 +15773,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
+        <v>830</v>
+      </c>
+      <c r="F426" t="s">
         <v>831</v>
-      </c>
-      <c r="F426" t="s">
-        <v>832</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15805,10 +15802,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
+        <v>832</v>
+      </c>
+      <c r="F427" t="s">
         <v>833</v>
-      </c>
-      <c r="F427" t="s">
-        <v>834</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15834,10 +15831,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
+        <v>834</v>
+      </c>
+      <c r="F428" t="s">
         <v>835</v>
-      </c>
-      <c r="F428" t="s">
-        <v>836</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15863,10 +15860,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
+        <v>836</v>
+      </c>
+      <c r="F429" t="s">
         <v>837</v>
-      </c>
-      <c r="F429" t="s">
-        <v>838</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15892,10 +15889,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
+        <v>838</v>
+      </c>
+      <c r="F430" t="s">
         <v>839</v>
-      </c>
-      <c r="F430" t="s">
-        <v>840</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15921,10 +15918,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
+        <v>840</v>
+      </c>
+      <c r="F431" t="s">
         <v>841</v>
-      </c>
-      <c r="F431" t="s">
-        <v>842</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15950,10 +15947,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
+        <v>842</v>
+      </c>
+      <c r="F432" t="s">
         <v>843</v>
-      </c>
-      <c r="F432" t="s">
-        <v>844</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15979,10 +15976,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
+        <v>844</v>
+      </c>
+      <c r="F433" t="s">
         <v>845</v>
-      </c>
-      <c r="F433" t="s">
-        <v>846</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16008,10 +16005,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
+        <v>846</v>
+      </c>
+      <c r="F434" t="s">
         <v>847</v>
-      </c>
-      <c r="F434" t="s">
-        <v>848</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16037,10 +16034,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
+        <v>848</v>
+      </c>
+      <c r="F435" t="s">
         <v>849</v>
-      </c>
-      <c r="F435" t="s">
-        <v>850</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16095,10 +16092,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
+        <v>850</v>
+      </c>
+      <c r="F437" t="s">
         <v>851</v>
-      </c>
-      <c r="F437" t="s">
-        <v>852</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16124,10 +16121,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
+        <v>852</v>
+      </c>
+      <c r="F438" t="s">
         <v>853</v>
-      </c>
-      <c r="F438" t="s">
-        <v>854</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16153,10 +16150,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
+        <v>854</v>
+      </c>
+      <c r="F439" t="s">
         <v>855</v>
-      </c>
-      <c r="F439" t="s">
-        <v>856</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16182,10 +16179,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
+        <v>856</v>
+      </c>
+      <c r="F440" t="s">
         <v>857</v>
-      </c>
-      <c r="F440" t="s">
-        <v>858</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16211,10 +16208,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
+        <v>858</v>
+      </c>
+      <c r="F441" t="s">
         <v>859</v>
-      </c>
-      <c r="F441" t="s">
-        <v>860</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16240,10 +16237,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
+        <v>860</v>
+      </c>
+      <c r="F442" t="s">
         <v>861</v>
-      </c>
-      <c r="F442" t="s">
-        <v>862</v>
       </c>
       <c r="G442" t="n">
         <v>4</v>
@@ -16269,10 +16266,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
+        <v>862</v>
+      </c>
+      <c r="F443" t="s">
         <v>863</v>
-      </c>
-      <c r="F443" t="s">
-        <v>864</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16298,10 +16295,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
+        <v>864</v>
+      </c>
+      <c r="F444" t="s">
         <v>865</v>
-      </c>
-      <c r="F444" t="s">
-        <v>866</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16327,10 +16324,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
+        <v>866</v>
+      </c>
+      <c r="F445" t="s">
         <v>867</v>
-      </c>
-      <c r="F445" t="s">
-        <v>868</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16356,10 +16353,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
+        <v>868</v>
+      </c>
+      <c r="F446" t="s">
         <v>869</v>
-      </c>
-      <c r="F446" t="s">
-        <v>870</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16385,10 +16382,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
+        <v>870</v>
+      </c>
+      <c r="F447" t="s">
         <v>871</v>
-      </c>
-      <c r="F447" t="s">
-        <v>872</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16414,10 +16411,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
+        <v>872</v>
+      </c>
+      <c r="F448" t="s">
         <v>873</v>
-      </c>
-      <c r="F448" t="s">
-        <v>874</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16443,10 +16440,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
+        <v>874</v>
+      </c>
+      <c r="F449" t="s">
         <v>875</v>
-      </c>
-      <c r="F449" t="s">
-        <v>876</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16472,10 +16469,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
+        <v>876</v>
+      </c>
+      <c r="F450" t="s">
         <v>877</v>
-      </c>
-      <c r="F450" t="s">
-        <v>878</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16501,10 +16498,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
+        <v>878</v>
+      </c>
+      <c r="F451" t="s">
         <v>879</v>
-      </c>
-      <c r="F451" t="s">
-        <v>880</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16530,10 +16527,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
+        <v>880</v>
+      </c>
+      <c r="F452" t="s">
         <v>881</v>
-      </c>
-      <c r="F452" t="s">
-        <v>882</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16559,10 +16556,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
+        <v>882</v>
+      </c>
+      <c r="F453" t="s">
         <v>883</v>
-      </c>
-      <c r="F453" t="s">
-        <v>884</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16588,10 +16585,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
+        <v>884</v>
+      </c>
+      <c r="F454" t="s">
         <v>885</v>
-      </c>
-      <c r="F454" t="s">
-        <v>886</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16617,10 +16614,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
+        <v>886</v>
+      </c>
+      <c r="F455" t="s">
         <v>887</v>
-      </c>
-      <c r="F455" t="s">
-        <v>888</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16646,10 +16643,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
+        <v>888</v>
+      </c>
+      <c r="F456" t="s">
         <v>889</v>
-      </c>
-      <c r="F456" t="s">
-        <v>890</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16675,10 +16672,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
+        <v>890</v>
+      </c>
+      <c r="F457" t="s">
         <v>891</v>
-      </c>
-      <c r="F457" t="s">
-        <v>892</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16704,10 +16701,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
+        <v>892</v>
+      </c>
+      <c r="F458" t="s">
         <v>893</v>
-      </c>
-      <c r="F458" t="s">
-        <v>894</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16733,10 +16730,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
+        <v>894</v>
+      </c>
+      <c r="F459" t="s">
         <v>895</v>
-      </c>
-      <c r="F459" t="s">
-        <v>896</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16762,10 +16759,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
+        <v>896</v>
+      </c>
+      <c r="F460" t="s">
         <v>897</v>
-      </c>
-      <c r="F460" t="s">
-        <v>898</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16791,10 +16788,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
+        <v>898</v>
+      </c>
+      <c r="F461" t="s">
         <v>899</v>
-      </c>
-      <c r="F461" t="s">
-        <v>900</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16820,10 +16817,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
+        <v>900</v>
+      </c>
+      <c r="F462" t="s">
         <v>901</v>
-      </c>
-      <c r="F462" t="s">
-        <v>902</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16849,10 +16846,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
+        <v>902</v>
+      </c>
+      <c r="F463" t="s">
         <v>903</v>
-      </c>
-      <c r="F463" t="s">
-        <v>904</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16878,10 +16875,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
+        <v>904</v>
+      </c>
+      <c r="F464" t="s">
         <v>905</v>
-      </c>
-      <c r="F464" t="s">
-        <v>906</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16907,10 +16904,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
+        <v>906</v>
+      </c>
+      <c r="F465" t="s">
         <v>907</v>
-      </c>
-      <c r="F465" t="s">
-        <v>908</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16936,10 +16933,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
+        <v>908</v>
+      </c>
+      <c r="F466" t="s">
         <v>909</v>
-      </c>
-      <c r="F466" t="s">
-        <v>910</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16965,10 +16962,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
+        <v>910</v>
+      </c>
+      <c r="F467" t="s">
         <v>911</v>
-      </c>
-      <c r="F467" t="s">
-        <v>912</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16994,10 +16991,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
+        <v>912</v>
+      </c>
+      <c r="F468" t="s">
         <v>913</v>
-      </c>
-      <c r="F468" t="s">
-        <v>914</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17023,10 +17020,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
+        <v>914</v>
+      </c>
+      <c r="F469" t="s">
         <v>915</v>
-      </c>
-      <c r="F469" t="s">
-        <v>916</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17052,10 +17049,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
+        <v>916</v>
+      </c>
+      <c r="F470" t="s">
         <v>917</v>
-      </c>
-      <c r="F470" t="s">
-        <v>918</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17081,10 +17078,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
+        <v>918</v>
+      </c>
+      <c r="F471" t="s">
         <v>919</v>
-      </c>
-      <c r="F471" t="s">
-        <v>920</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17110,10 +17107,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
+        <v>920</v>
+      </c>
+      <c r="F472" t="s">
         <v>921</v>
-      </c>
-      <c r="F472" t="s">
-        <v>922</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17139,10 +17136,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
+        <v>922</v>
+      </c>
+      <c r="F473" t="s">
         <v>923</v>
-      </c>
-      <c r="F473" t="s">
-        <v>924</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17168,10 +17165,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
+        <v>924</v>
+      </c>
+      <c r="F474" t="s">
         <v>925</v>
-      </c>
-      <c r="F474" t="s">
-        <v>926</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17197,10 +17194,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
+        <v>926</v>
+      </c>
+      <c r="F475" t="s">
         <v>927</v>
-      </c>
-      <c r="F475" t="s">
-        <v>928</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17226,10 +17223,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
+        <v>928</v>
+      </c>
+      <c r="F476" t="s">
         <v>929</v>
-      </c>
-      <c r="F476" t="s">
-        <v>930</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17255,10 +17252,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
+        <v>930</v>
+      </c>
+      <c r="F477" t="s">
         <v>931</v>
-      </c>
-      <c r="F477" t="s">
-        <v>932</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17284,10 +17281,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
+        <v>932</v>
+      </c>
+      <c r="F478" t="s">
         <v>933</v>
-      </c>
-      <c r="F478" t="s">
-        <v>934</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17313,10 +17310,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
+        <v>934</v>
+      </c>
+      <c r="F479" t="s">
         <v>935</v>
-      </c>
-      <c r="F479" t="s">
-        <v>936</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17342,10 +17339,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
+        <v>936</v>
+      </c>
+      <c r="F480" t="s">
         <v>937</v>
-      </c>
-      <c r="F480" t="s">
-        <v>938</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17371,10 +17368,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
+        <v>938</v>
+      </c>
+      <c r="F481" t="s">
         <v>939</v>
-      </c>
-      <c r="F481" t="s">
-        <v>940</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17400,10 +17397,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
+        <v>940</v>
+      </c>
+      <c r="F482" t="s">
         <v>941</v>
-      </c>
-      <c r="F482" t="s">
-        <v>942</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17429,10 +17426,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
+        <v>942</v>
+      </c>
+      <c r="F483" t="s">
         <v>943</v>
-      </c>
-      <c r="F483" t="s">
-        <v>944</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17458,10 +17455,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
+        <v>944</v>
+      </c>
+      <c r="F484" t="s">
         <v>945</v>
-      </c>
-      <c r="F484" t="s">
-        <v>946</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17487,10 +17484,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
+        <v>946</v>
+      </c>
+      <c r="F485" t="s">
         <v>947</v>
-      </c>
-      <c r="F485" t="s">
-        <v>948</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17516,10 +17513,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
+        <v>948</v>
+      </c>
+      <c r="F486" t="s">
         <v>949</v>
-      </c>
-      <c r="F486" t="s">
-        <v>950</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17545,10 +17542,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
+        <v>950</v>
+      </c>
+      <c r="F487" t="s">
         <v>951</v>
-      </c>
-      <c r="F487" t="s">
-        <v>952</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17574,10 +17571,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
+        <v>952</v>
+      </c>
+      <c r="F488" t="s">
         <v>953</v>
-      </c>
-      <c r="F488" t="s">
-        <v>954</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17603,10 +17600,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
+        <v>954</v>
+      </c>
+      <c r="F489" t="s">
         <v>955</v>
-      </c>
-      <c r="F489" t="s">
-        <v>956</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17632,10 +17629,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
+        <v>956</v>
+      </c>
+      <c r="F490" t="s">
         <v>957</v>
-      </c>
-      <c r="F490" t="s">
-        <v>958</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17661,10 +17658,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
+        <v>958</v>
+      </c>
+      <c r="F491" t="s">
         <v>959</v>
-      </c>
-      <c r="F491" t="s">
-        <v>960</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17690,10 +17687,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
+        <v>960</v>
+      </c>
+      <c r="F492" t="s">
         <v>961</v>
-      </c>
-      <c r="F492" t="s">
-        <v>962</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17719,10 +17716,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
+        <v>962</v>
+      </c>
+      <c r="F493" t="s">
         <v>963</v>
-      </c>
-      <c r="F493" t="s">
-        <v>964</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17748,10 +17745,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
+        <v>964</v>
+      </c>
+      <c r="F494" t="s">
         <v>965</v>
-      </c>
-      <c r="F494" t="s">
-        <v>966</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17777,10 +17774,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
+        <v>966</v>
+      </c>
+      <c r="F495" t="s">
         <v>967</v>
-      </c>
-      <c r="F495" t="s">
-        <v>968</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17806,10 +17803,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
+        <v>968</v>
+      </c>
+      <c r="F496" t="s">
         <v>969</v>
-      </c>
-      <c r="F496" t="s">
-        <v>970</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17835,10 +17832,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
+        <v>970</v>
+      </c>
+      <c r="F497" t="s">
         <v>971</v>
-      </c>
-      <c r="F497" t="s">
-        <v>972</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17864,10 +17861,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
+        <v>972</v>
+      </c>
+      <c r="F498" t="s">
         <v>973</v>
-      </c>
-      <c r="F498" t="s">
-        <v>974</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17893,10 +17890,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
+        <v>974</v>
+      </c>
+      <c r="F499" t="s">
         <v>975</v>
-      </c>
-      <c r="F499" t="s">
-        <v>976</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17922,10 +17919,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
+        <v>976</v>
+      </c>
+      <c r="F500" t="s">
         <v>977</v>
-      </c>
-      <c r="F500" t="s">
-        <v>978</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17951,10 +17948,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
+        <v>978</v>
+      </c>
+      <c r="F501" t="s">
         <v>979</v>
-      </c>
-      <c r="F501" t="s">
-        <v>980</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -17980,10 +17977,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
+        <v>980</v>
+      </c>
+      <c r="F502" t="s">
         <v>981</v>
-      </c>
-      <c r="F502" t="s">
-        <v>982</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18009,10 +18006,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
+        <v>982</v>
+      </c>
+      <c r="F503" t="s">
         <v>983</v>
-      </c>
-      <c r="F503" t="s">
-        <v>984</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18038,10 +18035,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
+        <v>984</v>
+      </c>
+      <c r="F504" t="s">
         <v>985</v>
-      </c>
-      <c r="F504" t="s">
-        <v>986</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18067,10 +18064,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
+        <v>986</v>
+      </c>
+      <c r="F505" t="s">
         <v>987</v>
-      </c>
-      <c r="F505" t="s">
-        <v>988</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18096,10 +18093,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
+        <v>988</v>
+      </c>
+      <c r="F506" t="s">
         <v>989</v>
-      </c>
-      <c r="F506" t="s">
-        <v>990</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18125,10 +18122,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
+        <v>990</v>
+      </c>
+      <c r="F507" t="s">
         <v>991</v>
-      </c>
-      <c r="F507" t="s">
-        <v>992</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18154,10 +18151,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
+        <v>992</v>
+      </c>
+      <c r="F508" t="s">
         <v>993</v>
-      </c>
-      <c r="F508" t="s">
-        <v>994</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18183,10 +18180,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
+        <v>994</v>
+      </c>
+      <c r="F509" t="s">
         <v>995</v>
-      </c>
-      <c r="F509" t="s">
-        <v>996</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18212,10 +18209,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
+        <v>996</v>
+      </c>
+      <c r="F510" t="s">
         <v>997</v>
-      </c>
-      <c r="F510" t="s">
-        <v>998</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18241,10 +18238,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
+        <v>998</v>
+      </c>
+      <c r="F511" t="s">
         <v>999</v>
-      </c>
-      <c r="F511" t="s">
-        <v>1000</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18270,10 +18267,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F512" t="s">
         <v>1001</v>
-      </c>
-      <c r="F512" t="s">
-        <v>1002</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18299,10 +18296,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F513" t="s">
         <v>1003</v>
-      </c>
-      <c r="F513" t="s">
-        <v>1004</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18328,10 +18325,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F514" t="s">
         <v>1005</v>
-      </c>
-      <c r="F514" t="s">
-        <v>1006</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18357,10 +18354,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F515" t="s">
         <v>1007</v>
-      </c>
-      <c r="F515" t="s">
-        <v>1008</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18386,10 +18383,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F516" t="s">
         <v>1009</v>
-      </c>
-      <c r="F516" t="s">
-        <v>1010</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18415,10 +18412,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F517" t="s">
         <v>1011</v>
-      </c>
-      <c r="F517" t="s">
-        <v>1012</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18444,10 +18441,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F518" t="s">
         <v>1013</v>
-      </c>
-      <c r="F518" t="s">
-        <v>1014</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18473,10 +18470,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F519" t="s">
         <v>1015</v>
-      </c>
-      <c r="F519" t="s">
-        <v>1016</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18502,10 +18499,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F520" t="s">
         <v>1017</v>
-      </c>
-      <c r="F520" t="s">
-        <v>1018</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18531,10 +18528,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F521" t="s">
         <v>1019</v>
-      </c>
-      <c r="F521" t="s">
-        <v>1020</v>
       </c>
       <c r="G521" t="n">
         <v>3</v>
@@ -18560,10 +18557,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F522" t="s">
         <v>1021</v>
-      </c>
-      <c r="F522" t="s">
-        <v>1022</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
